--- a/data/trans_orig/SENS_INSEGURIDAD-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SENS_INSEGURIDAD-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en País Vasco</t>
+          <t>Percepción de inseguridad en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4437,7 +4437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en Andalucia</t>
+          <t>Percepción de inseguridad en Andalucia (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8328,7 +8328,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en C.Valenciana</t>
+          <t>Percepción de inseguridad en C.Valenciana (tasa de respuesta: 93,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -12219,7 +12219,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en Barcelona</t>
+          <t>Percepción de inseguridad en Barcelona (tasa de respuesta: 97,55%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SENS_INSEGURIDAD-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SENS_INSEGURIDAD-Edad-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>49536</t>
+          <t>51734</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>46673</t>
+          <t>48436</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>52342</t>
+          <t>54673</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>76,67%</t>
+          <t>76,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>72,24%</t>
+          <t>71,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>81,01%</t>
+          <t>80,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>45834</t>
+          <t>50006</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>42114</t>
+          <t>46167</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>48849</t>
+          <t>53337</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>72,53%</t>
+          <t>73,18%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>66,64%</t>
+          <t>67,57%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>77,3%</t>
+          <t>78,06%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>95370</t>
+          <t>101739</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>90682</t>
+          <t>96939</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>99796</t>
+          <t>106495</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>74,62%</t>
+          <t>74,82%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>70,95%</t>
+          <t>71,29%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>78,32%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10489</t>
+          <t>11307</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8151</t>
+          <t>8751</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13188</t>
+          <t>14391</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12016</t>
+          <t>13274</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9410</t>
+          <t>10110</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15124</t>
+          <t>16532</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>22505</t>
+          <t>24581</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>18690</t>
+          <t>20653</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>26711</t>
+          <t>29530</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>21,72%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4584</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2937</t>
+          <t>2938</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6896</t>
+          <t>7092</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5345</t>
+          <t>5049</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3578</t>
+          <t>3393</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7705</t>
+          <t>7475</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>9929</t>
+          <t>9662</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>7569</t>
+          <t>7237</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>13141</t>
+          <t>12754</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>9,38%</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1075,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1110,17 +1110,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>54409</t>
+          <t>70137</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>50993</t>
+          <t>65835</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>57923</t>
+          <t>73987</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>76,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,94%</t>
+          <t>72,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>80,58%</t>
+          <t>81,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>51959</t>
+          <t>69581</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>48677</t>
+          <t>64683</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>54811</t>
+          <t>73394</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>78,41%</t>
+          <t>77,75%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>73,46%</t>
+          <t>72,28%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>82,72%</t>
+          <t>82,01%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>106368</t>
+          <t>139718</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>102177</t>
+          <t>133433</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>110561</t>
+          <t>145396</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>77,0%</t>
+          <t>77,27%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>73,96%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>80,03%</t>
+          <t>80,41%</t>
         </is>
       </c>
     </row>
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12109</t>
+          <t>15661</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9213</t>
+          <t>12080</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>19827</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10377</t>
+          <t>14354</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7810</t>
+          <t>11214</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13284</t>
+          <t>18363</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>22486</t>
+          <t>30015</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>25437</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>26447</t>
+          <t>36046</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>19,94%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5367</t>
+          <t>5527</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3555</t>
+          <t>3665</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7792</t>
+          <t>8042</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3928</t>
+          <t>5558</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2423</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5891</t>
+          <t>8820</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>9294</t>
+          <t>11084</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6894</t>
+          <t>8327</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>12693</t>
+          <t>14782</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1648,32 +1648,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>75524</t>
+          <t>97825</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>71633</t>
+          <t>92967</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>78988</t>
+          <t>102358</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>77,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>73,4%</t>
+          <t>73,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>80,94%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>73380</t>
+          <t>93320</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>68905</t>
+          <t>88437</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>77223</t>
+          <t>98327</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>73,28%</t>
+          <t>73,66%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>68,81%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>77,12%</t>
+          <t>77,61%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1718,32 +1718,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>148904</t>
+          <t>191144</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>143446</t>
+          <t>183321</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>154319</t>
+          <t>197238</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>75,31%</t>
+          <t>75,51%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>72,55%</t>
+          <t>72,42%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>78,05%</t>
+          <t>77,92%</t>
         </is>
       </c>
     </row>
@@ -1761,102 +1761,102 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16757</t>
+          <t>22794</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13504</t>
+          <t>18806</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20583</t>
+          <t>27194</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>21,51%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23173</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19014</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28148</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18,29%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>15,01%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>22,22%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>45967</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>40442</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>53378</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>18,16%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
           <t>21,09%</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>18258</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>15011</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>22031</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>18,23%</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>14,99%</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>22,0%</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>35014</t>
-        </is>
-      </c>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>30624</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>39877</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>17,71%</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="inlineStr">
-        <is>
-          <t>15,49%</t>
-        </is>
-      </c>
-      <c r="W13" s="2" t="inlineStr">
-        <is>
-          <t>20,17%</t>
         </is>
       </c>
     </row>
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5306</t>
+          <t>5824</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3426</t>
+          <t>3873</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7933</t>
+          <t>8583</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>10201</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6307</t>
+          <t>7624</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>11378</t>
+          <t>13519</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>13805</t>
+          <t>16026</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>10649</t>
+          <t>12403</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>17585</t>
+          <t>19891</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>7,86%</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2104,32 +2104,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>107962</t>
+          <t>115250</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>103155</t>
+          <t>110405</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>112585</t>
+          <t>119426</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>76,43%</t>
+          <t>77,8%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>73,03%</t>
+          <t>74,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>79,71%</t>
+          <t>80,62%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2139,32 +2139,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>106258</t>
+          <t>114422</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>101393</t>
+          <t>109965</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>110623</t>
+          <t>119217</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>75,67%</t>
+          <t>76,24%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>72,21%</t>
+          <t>73,27%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>78,78%</t>
+          <t>79,44%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2174,32 +2174,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>214220</t>
+          <t>229673</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>206371</t>
+          <t>223346</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>219803</t>
+          <t>236183</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>76,05%</t>
+          <t>77,02%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>73,27%</t>
+          <t>74,89%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>78,04%</t>
+          <t>79,2%</t>
         </is>
       </c>
     </row>
@@ -2217,32 +2217,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22168</t>
+          <t>22777</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18628</t>
+          <t>19161</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26241</t>
+          <t>27068</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2252,32 +2252,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24129</t>
+          <t>26038</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20606</t>
+          <t>22093</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>28371</t>
+          <t>30416</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2287,32 +2287,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>46297</t>
+          <t>48815</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>41010</t>
+          <t>43130</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>52385</t>
+          <t>54550</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>18,29%</t>
         </is>
       </c>
     </row>
@@ -2330,32 +2330,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11120</t>
+          <t>10113</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8319</t>
+          <t>7728</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14456</t>
+          <t>13516</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2365,32 +2365,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>10033</t>
+          <t>9614</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>7739</t>
+          <t>7311</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>13427</t>
+          <t>12233</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2400,32 +2400,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>21153</t>
+          <t>19727</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>17566</t>
+          <t>16414</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>26016</t>
+          <t>23998</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>8,05%</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2560,32 +2560,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>97821</t>
+          <t>97819</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>93395</t>
+          <t>93078</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>101739</t>
+          <t>102380</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>76,83%</t>
+          <t>75,21%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>73,36%</t>
+          <t>71,56%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>79,91%</t>
+          <t>78,71%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2595,32 +2595,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>111464</t>
+          <t>103969</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>106790</t>
+          <t>99009</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>116087</t>
+          <t>107629</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>74,49%</t>
+          <t>74,39%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>71,37%</t>
+          <t>70,84%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>77,58%</t>
+          <t>77,01%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2630,32 +2630,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>209284</t>
+          <t>201788</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>202735</t>
+          <t>195364</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>215437</t>
+          <t>207697</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>75,57%</t>
+          <t>74,78%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>73,2%</t>
+          <t>72,4%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>77,79%</t>
+          <t>76,97%</t>
         </is>
       </c>
     </row>
@@ -2673,32 +2673,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21959</t>
+          <t>24041</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18458</t>
+          <t>19958</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25849</t>
+          <t>28132</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2708,32 +2708,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>28293</t>
+          <t>25505</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>24172</t>
+          <t>22193</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>32709</t>
+          <t>30047</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2743,32 +2743,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>50252</t>
+          <t>49545</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>44502</t>
+          <t>44633</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>56634</t>
+          <t>55534</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>20,58%</t>
         </is>
       </c>
     </row>
@@ -2786,32 +2786,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7537</t>
+          <t>8210</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5378</t>
+          <t>5606</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>10152</t>
+          <t>11273</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2821,32 +2821,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9875</t>
+          <t>10292</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7367</t>
+          <t>7906</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>12951</t>
+          <t>13216</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2856,32 +2856,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>17412</t>
+          <t>18502</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>14107</t>
+          <t>14899</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>21154</t>
+          <t>22367</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -2899,17 +2899,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3016,32 +3016,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>84938</t>
+          <t>73424</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>80525</t>
+          <t>69818</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89078</t>
+          <t>76487</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>75,12%</t>
+          <t>76,76%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>71,22%</t>
+          <t>72,99%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>79,96%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3051,32 +3051,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>86475</t>
+          <t>83451</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>81979</t>
+          <t>79545</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>90604</t>
+          <t>87386</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>73,76%</t>
+          <t>74,53%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>69,92%</t>
+          <t>71,04%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>77,28%</t>
+          <t>78,04%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3086,32 +3086,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>171412</t>
+          <t>156875</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>165312</t>
+          <t>151653</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>177131</t>
+          <t>161484</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>75,56%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>71,78%</t>
+          <t>73,04%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>76,91%</t>
+          <t>77,78%</t>
         </is>
       </c>
     </row>
@@ -3129,32 +3129,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>21165</t>
+          <t>17029</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17877</t>
+          <t>14267</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>25397</t>
+          <t>20304</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3164,32 +3164,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>21107</t>
+          <t>19909</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>17485</t>
+          <t>16370</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>25005</t>
+          <t>23496</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3199,32 +3199,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>42271</t>
+          <t>36938</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>37470</t>
+          <t>32774</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>48386</t>
+          <t>41941</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>20,2%</t>
         </is>
       </c>
     </row>
@@ -3242,32 +3242,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>6961</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5045</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>9391</t>
+          <t>7079</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3277,32 +3277,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>9659</t>
+          <t>8611</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>7296</t>
+          <t>6638</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>12410</t>
+          <t>11331</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3312,32 +3312,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>16620</t>
+          <t>13810</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>13389</t>
+          <t>11322</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>20518</t>
+          <t>16994</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>8,19%</t>
         </is>
       </c>
     </row>
@@ -3355,17 +3355,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3390,17 +3390,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3425,17 +3425,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3472,32 +3472,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>78320</t>
+          <t>64043</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>74398</t>
+          <t>60857</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>81799</t>
+          <t>66915</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>79,87%</t>
+          <t>79,65%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>75,69%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>83,42%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3507,32 +3507,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>107961</t>
+          <t>99309</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>104167</t>
+          <t>95348</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>111823</t>
+          <t>102916</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>80,97%</t>
+          <t>78,8%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>78,12%</t>
+          <t>75,65%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>83,86%</t>
+          <t>81,66%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3542,32 +3542,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>186282</t>
+          <t>163351</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>180702</t>
+          <t>158238</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>191130</t>
+          <t>168214</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>80,5%</t>
+          <t>79,13%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>76,65%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>81,48%</t>
         </is>
       </c>
     </row>
@@ -3585,32 +3585,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>14652</t>
+          <t>12372</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11490</t>
+          <t>10028</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>18072</t>
+          <t>15358</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3620,32 +3620,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19943</t>
+          <t>20620</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>16593</t>
+          <t>17113</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>23505</t>
+          <t>24439</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3655,32 +3655,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>34595</t>
+          <t>32992</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>28951</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>39396</t>
+          <t>37621</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>18,22%</t>
         </is>
       </c>
     </row>
@@ -3698,32 +3698,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5087</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3362</t>
+          <t>2637</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>7492</t>
+          <t>5794</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3733,32 +3733,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>3905</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>7586</t>
+          <t>8764</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3768,32 +3768,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>10522</t>
+          <t>10093</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>8136</t>
+          <t>7851</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>13865</t>
+          <t>13301</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,44%</t>
         </is>
       </c>
     </row>
@@ -3811,17 +3811,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3881,17 +3881,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3928,32 +3928,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>548510</t>
+          <t>570231</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>538773</t>
+          <t>560178</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>558485</t>
+          <t>580487</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>76,85%</t>
+          <t>77,09%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>75,48%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>78,24%</t>
+          <t>78,48%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3963,32 +3963,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>583331</t>
+          <t>614057</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>572122</t>
+          <t>602602</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>594795</t>
+          <t>624972</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>75,73%</t>
+          <t>75,59%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>74,28%</t>
+          <t>74,18%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>77,22%</t>
+          <t>76,93%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3998,32 +3998,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>1131842</t>
+          <t>1184288</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>1116929</t>
+          <t>1168461</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>1146421</t>
+          <t>1197590</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>76,27%</t>
+          <t>76,3%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>75,26%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>77,25%</t>
+          <t>77,16%</t>
         </is>
       </c>
     </row>
@@ -4041,32 +4041,32 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>119299</t>
+          <t>125981</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>110700</t>
+          <t>117037</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>127955</t>
+          <t>135772</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>134123</t>
+          <t>142872</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>124522</t>
+          <t>133707</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>144697</t>
+          <t>152846</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>253421</t>
+          <t>268853</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>241261</t>
+          <t>254964</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>266554</t>
+          <t>281353</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>18,13%</t>
         </is>
       </c>
     </row>
@@ -4154,32 +4154,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>45963</t>
+          <t>43475</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>39995</t>
+          <t>38427</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>52600</t>
+          <t>49354</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4189,32 +4189,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>52773</t>
+          <t>55430</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>46606</t>
+          <t>48925</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>59729</t>
+          <t>62417</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4224,32 +4224,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>98736</t>
+          <t>98905</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>90242</t>
+          <t>90430</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>107525</t>
+          <t>107546</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,93%</t>
         </is>
       </c>
     </row>
@@ -4267,17 +4267,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4302,17 +4302,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4337,17 +4337,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4632,12 +4632,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>153751</t>
+          <t>153149</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>200517</t>
+          <t>199473</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4647,12 +4647,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>65,08%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>84,88%</t>
+          <t>84,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4667,12 +4667,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>104241</t>
+          <t>104579</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>141084</t>
+          <t>140978</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>56,54%</t>
+          <t>56,73%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>76,53%</t>
+          <t>76,47%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4702,12 +4702,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>274048</t>
+          <t>271419</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>331446</t>
+          <t>330078</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4717,12 +4717,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>65,16%</t>
+          <t>64,53%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>78,48%</t>
         </is>
       </c>
     </row>
@@ -4745,12 +4745,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17631</t>
+          <t>18986</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56805</t>
+          <t>55136</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4760,12 +4760,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4780,12 +4780,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27871</t>
+          <t>27611</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62212</t>
+          <t>60257</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4795,12 +4795,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>54076</t>
+          <t>53493</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>105028</t>
+          <t>102740</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4830,12 +4830,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>24,43%</t>
         </is>
       </c>
     </row>
@@ -4858,12 +4858,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10204</t>
+          <t>9172</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49858</t>
+          <t>43772</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7755</t>
+          <t>8154</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>31036</t>
+          <t>29765</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4908,12 +4908,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4928,12 +4928,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>23988</t>
+          <t>23154</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>63029</t>
+          <t>65033</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4943,12 +4943,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>15,46%</t>
         </is>
       </c>
     </row>
@@ -5088,12 +5088,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>164007</t>
+          <t>164616</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>195205</t>
+          <t>197011</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>71,5%</t>
+          <t>71,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -5123,12 +5123,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>234267</t>
+          <t>235037</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>285422</t>
+          <t>285388</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -5138,12 +5138,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>74,51%</t>
+          <t>74,75%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>90,76%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -5158,12 +5158,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>412636</t>
+          <t>412714</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>477075</t>
+          <t>476008</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -5173,12 +5173,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>75,88%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>87,73%</t>
+          <t>87,53%</t>
         </is>
       </c>
     </row>
@@ -5201,12 +5201,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22029</t>
+          <t>21898</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48460</t>
+          <t>50095</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5216,12 +5216,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5236,12 +5236,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22329</t>
+          <t>22105</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63964</t>
+          <t>65152</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5271,12 +5271,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>49508</t>
+          <t>52315</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>101295</t>
+          <t>102444</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5286,12 +5286,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>18,84%</t>
         </is>
       </c>
     </row>
@@ -5314,12 +5314,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6663</t>
+          <t>6395</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26949</t>
+          <t>25772</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5329,12 +5329,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5349,12 +5349,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21839</t>
+          <t>21015</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5364,12 +5364,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5384,12 +5384,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>13979</t>
+          <t>14165</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>41921</t>
+          <t>39738</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5399,12 +5399,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,31%</t>
         </is>
       </c>
     </row>
@@ -5544,12 +5544,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>225884</t>
+          <t>226029</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>257250</t>
+          <t>254517</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5559,12 +5559,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>74,14%</t>
+          <t>74,18%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>84,43%</t>
+          <t>83,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5579,12 +5579,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>245397</t>
+          <t>244770</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>268626</t>
+          <t>269469</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5594,12 +5594,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>76,28%</t>
+          <t>76,08%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>83,5%</t>
+          <t>83,76%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5614,12 +5614,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>479361</t>
+          <t>479656</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>516770</t>
+          <t>518072</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>76,53%</t>
+          <t>76,57%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>82,5%</t>
+          <t>82,71%</t>
         </is>
       </c>
     </row>
@@ -5657,12 +5657,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26065</t>
+          <t>27277</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50506</t>
+          <t>51595</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5672,12 +5672,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5692,12 +5692,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>34984</t>
+          <t>33770</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>54629</t>
+          <t>55932</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5707,12 +5707,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5727,12 +5727,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>66963</t>
+          <t>66804</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>97746</t>
+          <t>99419</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5742,12 +5742,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>15,87%</t>
         </is>
       </c>
     </row>
@@ -5770,12 +5770,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17027</t>
+          <t>16194</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>37720</t>
+          <t>37354</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5785,12 +5785,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5805,12 +5805,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>13649</t>
+          <t>13438</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>28579</t>
+          <t>27799</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5840,12 +5840,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>34207</t>
+          <t>34295</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>58524</t>
+          <t>60200</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,61%</t>
         </is>
       </c>
     </row>
@@ -6000,12 +6000,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>471363</t>
+          <t>471453</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>594984</t>
+          <t>591170</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6015,12 +6015,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>75,29%</t>
+          <t>75,3%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6035,12 +6035,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>302550</t>
+          <t>302446</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>329486</t>
+          <t>329501</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6050,12 +6050,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>75,04%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>81,72%</t>
+          <t>81,73%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6070,12 +6070,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>787235</t>
+          <t>785928</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>943568</t>
+          <t>948398</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6085,12 +6085,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>76,49%</t>
+          <t>76,36%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>92,14%</t>
         </is>
       </c>
     </row>
@@ -6113,12 +6113,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22977</t>
+          <t>27461</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>126069</t>
+          <t>125668</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6128,12 +6128,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6148,12 +6148,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>56782</t>
+          <t>57202</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>81258</t>
+          <t>81927</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6183,12 +6183,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>66233</t>
+          <t>61909</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>193927</t>
+          <t>194636</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>18,91%</t>
         </is>
       </c>
     </row>
@@ -6226,12 +6226,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4853</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>34905</t>
+          <t>33854</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -6241,12 +6241,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -6261,12 +6261,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>11701</t>
+          <t>12268</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>25804</t>
+          <t>25724</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -6296,12 +6296,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>15916</t>
+          <t>17791</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>53270</t>
+          <t>52999</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
@@ -6456,12 +6456,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>243353</t>
+          <t>243080</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>272395</t>
+          <t>272887</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6471,12 +6471,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>71,55%</t>
+          <t>71,47%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>80,09%</t>
+          <t>80,23%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6491,12 +6491,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>216925</t>
+          <t>217594</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>240808</t>
+          <t>241590</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6506,12 +6506,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>67,67%</t>
+          <t>67,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>75,12%</t>
+          <t>75,37%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6526,12 +6526,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>467233</t>
+          <t>468688</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>506206</t>
+          <t>507829</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6541,12 +6541,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>70,72%</t>
+          <t>70,94%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>76,62%</t>
+          <t>76,87%</t>
         </is>
       </c>
     </row>
@@ -6569,12 +6569,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>54907</t>
+          <t>54251</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>83424</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6584,12 +6584,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6604,12 +6604,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>63882</t>
+          <t>63212</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>86244</t>
+          <t>85731</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6619,12 +6619,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6639,12 +6639,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>126073</t>
+          <t>123616</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163525</t>
+          <t>160048</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6654,12 +6654,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>24,23%</t>
         </is>
       </c>
     </row>
@@ -6682,12 +6682,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8295</t>
+          <t>7755</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>21069</t>
+          <t>21190</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6697,12 +6697,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6717,12 +6717,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>11148</t>
+          <t>11264</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>23377</t>
+          <t>23190</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6732,12 +6732,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6752,12 +6752,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>21388</t>
+          <t>21238</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>39292</t>
+          <t>40078</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6767,12 +6767,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>6,07%</t>
         </is>
       </c>
     </row>
@@ -6912,12 +6912,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>156183</t>
+          <t>157086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>174260</t>
+          <t>175579</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6927,12 +6927,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>76,09%</t>
+          <t>76,53%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>84,89%</t>
+          <t>85,53%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6947,12 +6947,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>348711</t>
+          <t>348756</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>432348</t>
+          <t>437396</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6962,12 +6962,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>77,33%</t>
+          <t>77,34%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6982,12 +6982,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>516147</t>
+          <t>515639</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>617069</t>
+          <t>617090</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>78,66%</t>
+          <t>78,58%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
@@ -7025,12 +7025,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21608</t>
+          <t>21844</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37618</t>
+          <t>37646</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7040,12 +7040,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7060,12 +7060,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>14485</t>
+          <t>11462</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>82671</t>
+          <t>82626</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7075,12 +7075,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7095,12 +7095,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>29556</t>
+          <t>29525</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>109418</t>
+          <t>111067</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,93%</t>
         </is>
       </c>
     </row>
@@ -7138,12 +7138,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5765</t>
+          <t>5588</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>16057</t>
+          <t>15191</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7153,12 +7153,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7173,12 +7173,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>3361</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>22344</t>
+          <t>21507</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7188,12 +7188,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7208,12 +7208,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>8417</t>
+          <t>7941</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>33254</t>
+          <t>33109</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7223,12 +7223,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -7368,12 +7368,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>109304</t>
+          <t>109359</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>126235</t>
+          <t>125896</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -7383,12 +7383,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>72,02%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>83,17%</t>
+          <t>82,95%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -7403,12 +7403,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>162353</t>
+          <t>162617</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>181601</t>
+          <t>181617</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -7418,12 +7418,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>69,99%</t>
+          <t>70,11%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>78,29%</t>
+          <t>78,3%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -7438,12 +7438,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>277378</t>
+          <t>276474</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>302492</t>
+          <t>303206</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -7453,12 +7453,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>72,28%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>78,83%</t>
+          <t>79,01%</t>
         </is>
       </c>
     </row>
@@ -7481,12 +7481,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>21086</t>
+          <t>21165</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>36997</t>
+          <t>36826</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7496,12 +7496,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7516,12 +7516,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>38932</t>
+          <t>38983</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>56026</t>
+          <t>57301</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7531,12 +7531,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7551,12 +7551,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>64513</t>
+          <t>63955</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>87043</t>
+          <t>88261</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7566,12 +7566,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>23,0%</t>
         </is>
       </c>
     </row>
@@ -7594,12 +7594,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2163</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>9653</t>
+          <t>9531</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7609,12 +7609,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7629,12 +7629,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>8095</t>
+          <t>8247</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>18224</t>
+          <t>18376</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7644,12 +7644,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7664,12 +7664,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>12561</t>
+          <t>11716</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>24813</t>
+          <t>24267</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7679,12 +7679,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -7824,12 +7824,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>1610759</t>
+          <t>1610650</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1808378</t>
+          <t>1824521</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -7839,12 +7839,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>76,93%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>86,38%</t>
+          <t>87,15%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -7859,12 +7859,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>1688774</t>
+          <t>1690004</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>1887343</t>
+          <t>1884199</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -7874,12 +7874,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>75,83%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>84,74%</t>
+          <t>84,6%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -7894,12 +7894,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>3332315</t>
+          <t>3322446</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>3613652</t>
+          <t>3597193</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -7909,12 +7909,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>77,13%</t>
+          <t>76,9%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>83,64%</t>
+          <t>83,26%</t>
         </is>
       </c>
     </row>
@@ -7937,12 +7937,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>210906</t>
+          <t>193934</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>359952</t>
+          <t>359092</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -7952,12 +7952,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -7972,12 +7972,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>264936</t>
+          <t>266427</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>421079</t>
+          <t>420477</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -7987,12 +7987,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -8007,12 +8007,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>537585</t>
+          <t>549241</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>751836</t>
+          <t>760491</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -8022,12 +8022,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>17,6%</t>
         </is>
       </c>
     </row>
@@ -8050,12 +8050,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>73251</t>
+          <t>71649</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>139137</t>
+          <t>142291</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8065,12 +8065,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>75178</t>
+          <t>76005</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>129252</t>
+          <t>129259</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
@@ -8120,12 +8120,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>165907</t>
+          <t>172601</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>254631</t>
+          <t>258647</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8135,12 +8135,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,99%</t>
         </is>
       </c>
     </row>
@@ -12414,12 +12414,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34825</t>
+          <t>35210</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45654</t>
+          <t>45465</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -12429,12 +12429,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>54,62%</t>
+          <t>55,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -12449,12 +12449,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32235</t>
+          <t>32249</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>42510</t>
+          <t>42537</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -12464,12 +12464,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>69,74%</t>
+          <t>69,79%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -12484,12 +12484,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>69683</t>
+          <t>69552</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>85019</t>
+          <t>84559</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -12499,12 +12499,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>55,88%</t>
+          <t>55,77%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>68,17%</t>
+          <t>67,81%</t>
         </is>
       </c>
     </row>
@@ -12527,12 +12527,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7094</t>
+          <t>6841</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15614</t>
+          <t>14740</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -12542,12 +12542,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -12562,12 +12562,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12057</t>
+          <t>12436</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -12577,12 +12577,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -12597,12 +12597,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>13302</t>
+          <t>13486</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>24104</t>
+          <t>23605</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -12612,12 +12612,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>18,93%</t>
         </is>
       </c>
     </row>
@@ -12640,12 +12640,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9169</t>
+          <t>9114</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17443</t>
+          <t>17754</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -12655,12 +12655,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>27,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -12675,12 +12675,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11556</t>
+          <t>11553</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>21250</t>
+          <t>20598</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -12690,12 +12690,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -12710,12 +12710,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>23251</t>
+          <t>23049</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>35525</t>
+          <t>36065</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -12725,12 +12725,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>28,92%</t>
         </is>
       </c>
     </row>
@@ -12870,12 +12870,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71503</t>
+          <t>70757</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>86475</t>
+          <t>86026</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -12885,12 +12885,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>59,03%</t>
+          <t>58,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>71,4%</t>
+          <t>71,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -12905,12 +12905,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>65106</t>
+          <t>65530</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>80927</t>
+          <t>81514</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -12920,12 +12920,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>51,99%</t>
+          <t>52,33%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>64,63%</t>
+          <t>65,1%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -12940,12 +12940,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>141205</t>
+          <t>140240</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>164785</t>
+          <t>163906</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -12955,12 +12955,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>57,32%</t>
+          <t>56,93%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>66,89%</t>
+          <t>66,54%</t>
         </is>
       </c>
     </row>
@@ -12983,12 +12983,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8556</t>
+          <t>8654</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17448</t>
+          <t>18235</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -12998,12 +12998,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -13018,12 +13018,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11585</t>
+          <t>12071</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22894</t>
+          <t>23499</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -13033,12 +13033,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -13053,12 +13053,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>23410</t>
+          <t>22599</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>37816</t>
+          <t>37989</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -13068,12 +13068,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>15,42%</t>
         </is>
       </c>
     </row>
@@ -13096,12 +13096,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22702</t>
+          <t>22407</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36475</t>
+          <t>36560</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -13111,12 +13111,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -13131,12 +13131,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>28776</t>
+          <t>27834</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>42699</t>
+          <t>43035</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -13146,12 +13146,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -13166,12 +13166,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>54473</t>
+          <t>54590</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>74964</t>
+          <t>76011</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -13181,12 +13181,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>30,86%</t>
         </is>
       </c>
     </row>
@@ -13326,12 +13326,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>78002</t>
+          <t>77967</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96507</t>
+          <t>95871</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -13341,12 +13341,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>56,69%</t>
+          <t>56,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>70,14%</t>
+          <t>69,67%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -13361,12 +13361,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>64661</t>
+          <t>64855</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>81097</t>
+          <t>81119</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -13376,12 +13376,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>51,68%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>64,81%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -13396,12 +13396,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>147288</t>
+          <t>146367</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>171371</t>
+          <t>171118</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -13411,12 +13411,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>56,06%</t>
+          <t>55,71%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>65,23%</t>
+          <t>65,13%</t>
         </is>
       </c>
     </row>
@@ -13439,12 +13439,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8145</t>
+          <t>8202</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17811</t>
+          <t>17162</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -13454,12 +13454,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -13474,12 +13474,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13003</t>
+          <t>13359</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24932</t>
+          <t>24704</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -13489,12 +13489,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -13509,12 +13509,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>24387</t>
+          <t>23743</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>38627</t>
+          <t>38425</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -13524,12 +13524,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,63%</t>
         </is>
       </c>
     </row>
@@ -13552,12 +13552,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30158</t>
+          <t>30250</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>47199</t>
+          <t>47228</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -13567,12 +13567,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>34,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -13587,12 +13587,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>26955</t>
+          <t>27163</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>41189</t>
+          <t>41658</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -13602,12 +13602,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -13622,12 +13622,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>61440</t>
+          <t>61168</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>83057</t>
+          <t>83983</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -13637,12 +13637,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>31,97%</t>
         </is>
       </c>
     </row>
@@ -13782,12 +13782,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>56277</t>
+          <t>57469</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>73769</t>
+          <t>73408</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -13797,12 +13797,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>49,05%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>62,96%</t>
+          <t>62,65%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -13817,12 +13817,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>56833</t>
+          <t>57457</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>72899</t>
+          <t>72721</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -13832,12 +13832,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
+          <t>48,71%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>61,81%</t>
+          <t>61,65%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -13852,12 +13852,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>120003</t>
+          <t>119083</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>142774</t>
+          <t>142670</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -13867,12 +13867,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>51,04%</t>
+          <t>50,65%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>60,72%</t>
+          <t>60,68%</t>
         </is>
       </c>
     </row>
@@ -13895,12 +13895,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11844</t>
+          <t>11599</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21795</t>
+          <t>21578</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -13910,12 +13910,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -13930,12 +13930,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12766</t>
+          <t>12320</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23911</t>
+          <t>23351</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -13945,12 +13945,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -13965,12 +13965,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>26628</t>
+          <t>27194</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>41294</t>
+          <t>41448</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -13980,12 +13980,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,63%</t>
         </is>
       </c>
     </row>
@@ -14008,12 +14008,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27415</t>
+          <t>27675</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>44359</t>
+          <t>44978</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -14023,12 +14023,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -14043,12 +14043,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>28388</t>
+          <t>29140</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>43484</t>
+          <t>43724</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -14058,12 +14058,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -14078,12 +14078,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>60294</t>
+          <t>59936</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>82771</t>
+          <t>82587</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -14093,12 +14093,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>35,13%</t>
         </is>
       </c>
     </row>
@@ -14238,12 +14238,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>47731</t>
+          <t>47528</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>63379</t>
+          <t>62818</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -14253,12 +14253,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>48,96%</t>
+          <t>48,76%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>65,02%</t>
+          <t>64,44%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -14273,12 +14273,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>57494</t>
+          <t>57846</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>73209</t>
+          <t>73627</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -14288,12 +14288,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>52,17%</t>
+          <t>52,48%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>66,42%</t>
+          <t>66,8%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -14308,12 +14308,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>111318</t>
+          <t>110521</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>132626</t>
+          <t>132566</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -14323,12 +14323,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>53,6%</t>
+          <t>53,21%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>63,86%</t>
+          <t>63,83%</t>
         </is>
       </c>
     </row>
@@ -14351,12 +14351,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7265</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18526</t>
+          <t>17458</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -14366,12 +14366,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -14386,12 +14386,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>8648</t>
+          <t>8529</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17896</t>
+          <t>18227</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -14401,12 +14401,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -14421,12 +14421,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>17930</t>
+          <t>18059</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>31103</t>
+          <t>31730</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -14436,12 +14436,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>15,28%</t>
         </is>
       </c>
     </row>
@@ -14464,12 +14464,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>23884</t>
+          <t>24275</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>38526</t>
+          <t>39022</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -14479,12 +14479,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -14499,12 +14499,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>25436</t>
+          <t>24425</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>39407</t>
+          <t>38384</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -14514,12 +14514,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -14534,12 +14534,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>52986</t>
+          <t>51878</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>72598</t>
+          <t>72244</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -14549,12 +14549,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>34,78%</t>
         </is>
       </c>
     </row>
@@ -14694,12 +14694,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>34854</t>
+          <t>34353</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>46903</t>
+          <t>46805</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -14709,12 +14709,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>51,55%</t>
+          <t>50,81%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>69,38%</t>
+          <t>69,23%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -14729,12 +14729,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>46728</t>
+          <t>47204</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>60702</t>
+          <t>60710</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -14744,7 +14744,7 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>54,12%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
@@ -14764,12 +14764,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>85926</t>
+          <t>85360</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>103675</t>
+          <t>103646</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -14779,12 +14779,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>55,45%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>67,35%</t>
+          <t>67,33%</t>
         </is>
       </c>
     </row>
@@ -14807,12 +14807,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>3247</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>9990</t>
+          <t>9773</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -14822,12 +14822,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -14842,12 +14842,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>6286</t>
+          <t>6448</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>15247</t>
+          <t>15096</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -14857,12 +14857,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -14877,12 +14877,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>11543</t>
+          <t>11103</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>22985</t>
+          <t>22111</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -14892,12 +14892,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>14,36%</t>
         </is>
       </c>
     </row>
@@ -14920,12 +14920,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>15338</t>
+          <t>15821</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26635</t>
+          <t>27804</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -14935,12 +14935,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>41,13%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -14955,12 +14955,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>16424</t>
+          <t>16014</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>28946</t>
+          <t>29358</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -14970,12 +14970,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -14990,12 +14990,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>34240</t>
+          <t>34360</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>51281</t>
+          <t>51440</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -15005,12 +15005,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>33,41%</t>
         </is>
       </c>
     </row>
@@ -15150,12 +15150,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>35117</t>
+          <t>35026</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>46564</t>
+          <t>46020</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -15165,12 +15165,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>53,56%</t>
+          <t>53,42%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>71,02%</t>
+          <t>70,19%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -15185,12 +15185,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>58313</t>
+          <t>58588</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>73464</t>
+          <t>74723</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -15200,12 +15200,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>55,23%</t>
+          <t>55,49%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>69,58%</t>
+          <t>70,77%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -15220,12 +15220,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>97506</t>
+          <t>98203</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>116862</t>
+          <t>117272</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -15235,12 +15235,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>56,97%</t>
+          <t>57,38%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>68,28%</t>
+          <t>68,52%</t>
         </is>
       </c>
     </row>
@@ -15263,12 +15263,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2714</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7991</t>
+          <t>8196</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -15278,12 +15278,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -15298,12 +15298,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4703</t>
+          <t>4724</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>13282</t>
+          <t>13341</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -15313,12 +15313,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -15333,12 +15333,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>8809</t>
+          <t>8975</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>19610</t>
+          <t>19395</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -15348,12 +15348,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>11,33%</t>
         </is>
       </c>
     </row>
@@ -15376,12 +15376,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>13964</t>
+          <t>14800</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>25267</t>
+          <t>25747</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -15391,12 +15391,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -15411,12 +15411,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>24237</t>
+          <t>23838</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>39026</t>
+          <t>38729</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -15426,12 +15426,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -15446,12 +15446,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>41974</t>
+          <t>41212</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>59782</t>
+          <t>59805</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -15461,12 +15461,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>34,94%</t>
         </is>
       </c>
     </row>
@@ -15606,12 +15606,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>391362</t>
+          <t>391196</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>427604</t>
+          <t>430174</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -15621,12 +15621,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>58,36%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>63,79%</t>
+          <t>64,18%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -15641,12 +15641,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>415749</t>
+          <t>412952</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>455293</t>
+          <t>453447</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -15656,12 +15656,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>56,84%</t>
+          <t>56,46%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>62,25%</t>
+          <t>62,0%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -15676,12 +15676,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>818227</t>
+          <t>816106</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>874030</t>
+          <t>873145</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -15691,12 +15691,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>58,37%</t>
+          <t>58,22%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>62,36%</t>
+          <t>62,29%</t>
         </is>
       </c>
     </row>
@@ -15719,12 +15719,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>64113</t>
+          <t>62888</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>85699</t>
+          <t>85772</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -15734,12 +15734,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -15754,12 +15754,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>78752</t>
+          <t>79940</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>104898</t>
+          <t>106023</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -15769,12 +15769,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -15789,12 +15789,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>148511</t>
+          <t>149260</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>182957</t>
+          <t>182273</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -15804,12 +15804,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>13,0%</t>
         </is>
       </c>
     </row>
@@ -15832,12 +15832,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>167418</t>
+          <t>167356</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>204008</t>
+          <t>204922</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -15847,12 +15847,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -15867,12 +15867,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>187605</t>
+          <t>185618</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>223939</t>
+          <t>223514</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -15882,12 +15882,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -15902,12 +15902,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>366456</t>
+          <t>361884</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>416234</t>
+          <t>415288</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -15917,12 +15917,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>29,63%</t>
         </is>
       </c>
     </row>
